--- a/Grelha_Martel_Tool_OnlyMainData.xlsx
+++ b/Grelha_Martel_Tool_OnlyMainData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualg365-my.sharepoint.com/personal/acfernandes_ualg_pt/Documents/Laboratorio/T_Elongation/Medidas_Raw_Matrix/Excell_dados_tratamentos/Excell_Paper_TudoDireitinho/Matrizes/Matrizes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martel\Documents\Projects\Embryo_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{0AA38F14-F960-41EC-91C6-1DE9B927319B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B410B2CE-11E8-48B5-BFDD-30324BF0F056}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87480CB8-2112-4C31-B9FC-BD6C73A2608F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ALLRaw_DATA" sheetId="9" r:id="rId1"/>
-    <sheet name="AllRaw_Data_RealTime" sheetId="10" r:id="rId2"/>
+    <sheet name="REF_DATA" sheetId="9" r:id="rId1"/>
+    <sheet name="REF_DATA_RealTime" sheetId="10" r:id="rId2"/>
     <sheet name="Experiments_SingleObservations" sheetId="11" r:id="rId3"/>
     <sheet name="Experiments_ObservationsOverTim" sheetId="12" r:id="rId4"/>
   </sheets>
@@ -37,9 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="48">
-  <si>
-    <t>TimePoint</t>
-  </si>
   <si>
     <t>Crtl</t>
   </si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>C-HF</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -729,63 +729,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CD6D02-66C6-4DBD-9CCE-FAC06600DF1D}">
   <dimension ref="A1:N417"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="47" t="s">
+      <c r="L1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="46" t="s">
+      <c r="N1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>6</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>6</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>6</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>6</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>6</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>6</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>6</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>6</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>6</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>6</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>6</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>6</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>6</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>6</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>14</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>14</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>14</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>14</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <v>14</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <v>14</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>14</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <v>14</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <v>14</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <v>14</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <v>14</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <v>14</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <v>14</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
         <v>14</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <v>14</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <v>14</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <v>14</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <v>14</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
         <v>14</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>14</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
         <v>14</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
         <v>14</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
         <v>14</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <v>14</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
         <v>14</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
         <v>14</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
         <v>14</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
         <v>14</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
         <v>14</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
         <v>14</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
         <v>14</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18">
         <v>14</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>25</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>25</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>25</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>25</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>25</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>25</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>25</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>25</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>25</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>25</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>25</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>25</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>25</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>25</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>25</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>25</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>25</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>25</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>25</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>25</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>25</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>25</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>25</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>25</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>25</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>25</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>25</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>25</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>25</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>25</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>25</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="21">
         <v>25</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>25</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>25</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>25</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>25</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>25</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>25</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>25</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>25</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>25</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>25</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>25</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>25</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>25</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>25</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>25</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>25</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>25</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>25</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>25</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>25</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>25</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>25</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>25</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>25</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>25</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>25</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="17">
         <v>25</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>25</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="17">
         <v>25</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>25</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="17">
         <v>25</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>25</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>28</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>28</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>28</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>28</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>28</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>28</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>28</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>28</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>28</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>28</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>28</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>28</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>28</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>28</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>28</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>28</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>28</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>28</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>28</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>28</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>28</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>28</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>28</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>28</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>28</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>28</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>28</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>28</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="B158" s="11">
         <v>20</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" s="11">
         <v>21</v>
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="B160" s="11">
         <v>22</v>
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="21"/>
       <c r="B161" s="11">
         <v>23</v>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="24"/>
       <c r="B162" s="25">
         <v>-8</v>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="17">
         <v>13</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>13</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>13</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>13</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>13</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>13</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>13</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>13</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>13</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>13</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
         <v>13</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>13</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
         <v>13</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="7">
         <v>6</v>
@@ -6403,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="B177" s="7">
         <v>7</v>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="B178" s="7">
         <v>8</v>
@@ -6447,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="B179" s="11">
         <v>9</v>
@@ -6469,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="B180" s="11">
         <v>10</v>
@@ -6491,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="B181" s="11">
         <v>11</v>
@@ -6513,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" s="11">
         <v>12</v>
@@ -6535,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="11">
         <v>13</v>
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="B184" s="11">
         <v>14</v>
@@ -6579,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="B185" s="11">
         <v>15</v>
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="B186" s="11">
         <v>16</v>
@@ -6623,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="11">
         <v>17</v>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="B188" s="11">
         <v>18</v>
@@ -6667,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" s="11">
         <v>19</v>
@@ -6689,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" s="11">
         <v>20</v>
@@ -6711,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="B191" s="11">
         <v>21</v>
@@ -6733,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="B192" s="11">
         <v>22</v>
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:14" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="21"/>
       <c r="B193" s="27">
         <v>23</v>
@@ -6777,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="B194" s="11">
         <v>-8</v>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="B195" s="11">
         <v>-7</v>
@@ -6821,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="B196" s="7">
         <v>-6</v>
@@ -6843,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="7">
         <v>-5</v>
@@ -6865,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="7">
         <v>-4</v>
@@ -6887,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="B199" s="7">
         <v>-3</v>
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="B200" s="7">
         <v>-2</v>
@@ -6931,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="6"/>
       <c r="B201" s="7">
         <v>-1</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="6"/>
       <c r="B202" s="7">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="6"/>
       <c r="B203" s="7">
         <v>1</v>
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="17"/>
       <c r="B204" s="7">
         <v>2</v>
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
         <v>20</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
         <v>20</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="6">
         <v>20</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="6">
         <v>20</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
         <v>20</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
         <v>20</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
         <v>20</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
         <v>20</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
         <v>20</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
         <v>20</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
         <v>20</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
         <v>20</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
         <v>20</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
         <v>20</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
         <v>20</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
         <v>20</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
         <v>20</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
         <v>20</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
         <v>20</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
         <v>20</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="21">
         <v>20</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
         <v>25</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>25</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
         <v>25</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="6">
         <v>25</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="6">
         <v>25</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
         <v>25</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
         <v>25</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
         <v>25</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
         <v>25</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
         <v>25</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
         <v>25</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
         <v>25</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="6">
         <v>25</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="6">
         <v>25</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="6">
         <v>25</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="6">
         <v>25</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="6">
         <v>25</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="6">
         <v>25</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="6">
         <v>25</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="6">
         <v>25</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="6">
         <v>25</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="6">
         <v>25</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="6">
         <v>25</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="6">
         <v>25</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="6">
         <v>25</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="6">
         <v>25</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="6">
         <v>25</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
         <v>25</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" s="6">
         <v>25</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
         <v>25</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="17">
         <v>25</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="21"/>
       <c r="B257" s="14">
         <v>23</v>
@@ -9035,7 +9035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="6">
         <v>11</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="6">
         <v>11</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="6">
         <v>11</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="6">
         <v>11</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="6">
         <v>11</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="6">
         <v>11</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="6">
         <v>11</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" s="6">
         <v>11</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
         <v>11</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
         <v>11</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="6">
         <v>11</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
         <v>11</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" s="6">
         <v>11</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" s="6">
         <v>11</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="6">
         <v>11</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="6">
         <v>11</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274" s="6">
         <v>11</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
         <v>11</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" s="6">
         <v>11</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
         <v>11</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" s="6">
         <v>11</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="6">
         <v>11</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" s="6">
         <v>11</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="6">
         <v>11</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" s="6">
         <v>11</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" s="6">
         <v>11</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" s="6">
         <v>11</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285" s="6">
         <v>11</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" s="6">
         <v>11</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" s="6">
         <v>11</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" s="6">
         <v>11</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="21">
         <v>11</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" s="6">
         <v>7</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="6">
         <v>7</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" s="6">
         <v>7</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" s="6">
         <v>7</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" s="6">
         <v>7</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="6">
         <v>7</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="6">
         <v>7</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="6">
         <v>7</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="6">
         <v>7</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="6">
         <v>7</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="6">
         <v>7</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="6">
         <v>7</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="6">
         <v>7</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="6">
         <v>7</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="6">
         <v>7</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A305" s="6">
         <v>7</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A306" s="6">
         <v>7</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A307" s="6">
         <v>7</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A308" s="6">
         <v>7</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A309" s="6">
         <v>7</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A310" s="6">
         <v>7</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A311" s="6">
         <v>7</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A312" s="6">
         <v>7</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A313" s="6">
         <v>7</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A314" s="6">
         <v>7</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A315" s="6">
         <v>7</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A316" s="6">
         <v>7</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A317" s="6">
         <v>7</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="6">
         <v>7</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A319" s="6">
         <v>7</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A320" s="6">
         <v>7</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A321" s="21">
         <v>7</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A322" s="6">
         <v>24</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A323" s="6">
         <v>24</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A324" s="6">
         <v>24</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A325" s="6">
         <v>24</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A326" s="6">
         <v>24</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A327" s="6">
         <v>24</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A328" s="6">
         <v>24</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A329" s="6">
         <v>24</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A330" s="6">
         <v>24</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A331" s="6">
         <v>24</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A332" s="6">
         <v>24</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A333" s="6">
         <v>24</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A334" s="6">
         <v>24</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A335" s="6">
         <v>24</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A336" s="6">
         <v>24</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A337" s="6">
         <v>24</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A338" s="6">
         <v>24</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A339" s="6">
         <v>24</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A340" s="6">
         <v>24</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A341" s="6">
         <v>24</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A342" s="6">
         <v>24</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A343" s="6">
         <v>24</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A344" s="6">
         <v>24</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A345" s="6">
         <v>24</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A346" s="6">
         <v>24</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A347" s="6">
         <v>24</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A348" s="6">
         <v>24</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A349" s="6">
         <v>24</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A350" s="6">
         <v>24</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A351" s="17">
         <v>24</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A352" s="6">
         <v>24</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A353" s="21">
         <v>24</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A354" s="6">
         <v>14</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A355" s="6">
         <v>14</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A356" s="6">
         <v>14</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A357" s="6">
         <v>14</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A358" s="6">
         <v>14</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A359" s="6">
         <v>14</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A360" s="6">
         <v>14</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A361" s="6">
         <v>14</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A362" s="6">
         <v>14</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A363" s="6">
         <v>14</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A364" s="6">
         <v>14</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A365" s="6">
         <v>14</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="6">
         <v>14</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="6">
         <v>14</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A368" s="6">
         <v>14</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A369" s="6">
         <v>14</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A370" s="6">
         <v>14</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A371" s="6">
         <v>14</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A372" s="6">
         <v>14</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A373" s="6">
         <v>14</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A374" s="6">
         <v>14</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A375" s="6">
         <v>14</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A376" s="6">
         <v>14</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A377" s="6">
         <v>14</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A378" s="6">
         <v>14</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A379" s="6">
         <v>14</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A380" s="6">
         <v>14</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A381" s="6">
         <v>14</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A382" s="6">
         <v>14</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A383" s="6">
         <v>14</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A384" s="6">
         <v>14</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A385" s="6">
         <v>14</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A386" s="6">
         <v>17</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A387" s="6">
         <v>17</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A388" s="6">
         <v>17</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A389" s="6">
         <v>17</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A390" s="6">
         <v>17</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A391" s="6">
         <v>17</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A392" s="6">
         <v>17</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A393" s="6">
         <v>17</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A394" s="6">
         <v>17</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A395" s="6">
         <v>17</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A396" s="6">
         <v>17</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A397" s="6">
         <v>17</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A398" s="6">
         <v>17</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A399" s="6">
         <v>17</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A400" s="6">
         <v>17</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A401" s="6">
         <v>17</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A402" s="6">
         <v>17</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A403" s="6">
         <v>17</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A404" s="6">
         <v>17</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A405" s="6">
         <v>17</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A406" s="6">
         <v>17</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A407" s="6">
         <v>17</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A408" s="6">
         <v>17</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A409" s="6">
         <v>17</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A410" s="6">
         <v>17</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A411" s="6">
         <v>17</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A412" s="6">
         <v>17</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A413" s="6">
         <v>17</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A414" s="6">
         <v>17</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A415" s="6">
         <v>17</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A416" s="6">
         <v>17</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A417" s="21">
         <v>17</v>
       </c>
@@ -14046,6 +14046,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ignfpbW/ScrcJ3ptgCDKfH/p6mOIUguvfxfReiHmC/cK6onlH5pVIoIG8OtgKX1YcQsRDTVLtMbc/LnKmbIccg==" saltValue="OetL3tOwF9RVmJAh8NQwBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14056,60 +14057,60 @@
   <dimension ref="A1:N417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="47" t="s">
+      <c r="L1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="46" t="s">
+      <c r="N1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -14131,7 +14132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -14175,7 +14176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -14197,7 +14198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -14227,7 +14228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -14257,7 +14258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -14287,7 +14288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -14317,7 +14318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -14353,7 +14354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>6</v>
       </c>
@@ -14389,7 +14390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -14411,7 +14412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -14433,7 +14434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -14455,7 +14456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -14477,7 +14478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -14499,7 +14500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>6</v>
       </c>
@@ -14521,7 +14522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -14543,7 +14544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -14565,7 +14566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>6</v>
       </c>
@@ -14587,7 +14588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>6</v>
       </c>
@@ -14609,7 +14610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -14631,7 +14632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -14653,7 +14654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>6</v>
       </c>
@@ -14675,7 +14676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>6</v>
       </c>
@@ -14697,7 +14698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>6</v>
       </c>
@@ -14719,7 +14720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>6</v>
       </c>
@@ -14741,7 +14742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>6</v>
       </c>
@@ -14763,7 +14764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>6</v>
       </c>
@@ -14785,7 +14786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>6</v>
       </c>
@@ -14807,7 +14808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>6</v>
       </c>
@@ -14829,7 +14830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>6</v>
       </c>
@@ -14851,7 +14852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>6</v>
       </c>
@@ -14873,7 +14874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>14</v>
       </c>
@@ -14895,7 +14896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>14</v>
       </c>
@@ -14917,7 +14918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>14</v>
       </c>
@@ -14939,7 +14940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>14</v>
       </c>
@@ -14969,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <v>14</v>
       </c>
@@ -14999,7 +15000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <v>14</v>
       </c>
@@ -15029,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>14</v>
       </c>
@@ -15059,7 +15060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <v>14</v>
       </c>
@@ -15089,7 +15090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <v>14</v>
       </c>
@@ -15125,7 +15126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <v>14</v>
       </c>
@@ -15161,7 +15162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <v>14</v>
       </c>
@@ -15197,7 +15198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <v>14</v>
       </c>
@@ -15233,7 +15234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <v>14</v>
       </c>
@@ -15269,7 +15270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
         <v>14</v>
       </c>
@@ -15305,7 +15306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <v>14</v>
       </c>
@@ -15343,7 +15344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <v>14</v>
       </c>
@@ -15381,7 +15382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="34">
         <v>14</v>
       </c>
@@ -15425,7 +15426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <v>14</v>
       </c>
@@ -15447,7 +15448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
         <v>14</v>
       </c>
@@ -15469,7 +15470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>14</v>
       </c>
@@ -15491,7 +15492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
         <v>14</v>
       </c>
@@ -15513,7 +15514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
         <v>14</v>
       </c>
@@ -15535,7 +15536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
         <v>14</v>
       </c>
@@ -15557,7 +15558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <v>14</v>
       </c>
@@ -15579,7 +15580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
         <v>14</v>
       </c>
@@ -15601,7 +15602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
         <v>14</v>
       </c>
@@ -15623,7 +15624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
         <v>14</v>
       </c>
@@ -15645,7 +15646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
         <v>14</v>
       </c>
@@ -15667,7 +15668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
         <v>14</v>
       </c>
@@ -15689,7 +15690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
         <v>14</v>
       </c>
@@ -15711,7 +15712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
         <v>14</v>
       </c>
@@ -15733,7 +15734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18">
         <v>14</v>
       </c>
@@ -15755,7 +15756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>25</v>
       </c>
@@ -15777,7 +15778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>25</v>
       </c>
@@ -15799,7 +15800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>25</v>
       </c>
@@ -15821,7 +15822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>25</v>
       </c>
@@ -15843,7 +15844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>25</v>
       </c>
@@ -15865,7 +15866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>25</v>
       </c>
@@ -15887,7 +15888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>25</v>
       </c>
@@ -15909,7 +15910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>25</v>
       </c>
@@ -15939,7 +15940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>25</v>
       </c>
@@ -15975,7 +15976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>25</v>
       </c>
@@ -16011,7 +16012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>25</v>
       </c>
@@ -16047,7 +16048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>25</v>
       </c>
@@ -16083,7 +16084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>25</v>
       </c>
@@ -16119,7 +16120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>25</v>
       </c>
@@ -16155,7 +16156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>25</v>
       </c>
@@ -16191,7 +16192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>25</v>
       </c>
@@ -16227,7 +16228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>25</v>
       </c>
@@ -16265,7 +16266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>25</v>
       </c>
@@ -16303,7 +16304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>25</v>
       </c>
@@ -16341,7 +16342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>25</v>
       </c>
@@ -16383,7 +16384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>25</v>
       </c>
@@ -16427,7 +16428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>25</v>
       </c>
@@ -16471,7 +16472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>25</v>
       </c>
@@ -16515,7 +16516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>25</v>
       </c>
@@ -16559,7 +16560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>25</v>
       </c>
@@ -16603,7 +16604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>25</v>
       </c>
@@ -16647,7 +16648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>25</v>
       </c>
@@ -16691,7 +16692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>25</v>
       </c>
@@ -16735,7 +16736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>25</v>
       </c>
@@ -16779,7 +16780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>25</v>
       </c>
@@ -16823,7 +16824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>25</v>
       </c>
@@ -16867,7 +16868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="21">
         <v>25</v>
       </c>
@@ -16911,7 +16912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>25</v>
       </c>
@@ -16933,7 +16934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>25</v>
       </c>
@@ -16955,7 +16956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>25</v>
       </c>
@@ -16985,7 +16986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>25</v>
       </c>
@@ -17015,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>25</v>
       </c>
@@ -17045,7 +17046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>25</v>
       </c>
@@ -17075,7 +17076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>25</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>25</v>
       </c>
@@ -17135,7 +17136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>25</v>
       </c>
@@ -17171,7 +17172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>25</v>
       </c>
@@ -17207,7 +17208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>25</v>
       </c>
@@ -17243,7 +17244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>25</v>
       </c>
@@ -17279,7 +17280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>25</v>
       </c>
@@ -17315,7 +17316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>25</v>
       </c>
@@ -17351,7 +17352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>25</v>
       </c>
@@ -17387,7 +17388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>25</v>
       </c>
@@ -17423,7 +17424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>25</v>
       </c>
@@ -17461,7 +17462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>25</v>
       </c>
@@ -17499,7 +17500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>25</v>
       </c>
@@ -17541,7 +17542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>25</v>
       </c>
@@ -17585,7 +17586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>25</v>
       </c>
@@ -17629,7 +17630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>25</v>
       </c>
@@ -17673,7 +17674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>25</v>
       </c>
@@ -17717,7 +17718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>25</v>
       </c>
@@ -17761,7 +17762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>25</v>
       </c>
@@ -17805,7 +17806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>25</v>
       </c>
@@ -17849,7 +17850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="34">
         <v>25</v>
       </c>
@@ -17893,7 +17894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>25</v>
       </c>
@@ -17915,7 +17916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="17">
         <v>25</v>
       </c>
@@ -17937,7 +17938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>25</v>
       </c>
@@ -17959,7 +17960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="17">
         <v>25</v>
       </c>
@@ -17981,7 +17982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>25</v>
       </c>
@@ -18003,7 +18004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>28</v>
       </c>
@@ -18033,7 +18034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>28</v>
       </c>
@@ -18063,7 +18064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>28</v>
       </c>
@@ -18093,7 +18094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>28</v>
       </c>
@@ -18123,7 +18124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>28</v>
       </c>
@@ -18153,7 +18154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>28</v>
       </c>
@@ -18183,7 +18184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>28</v>
       </c>
@@ -18213,7 +18214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>28</v>
       </c>
@@ -18243,7 +18244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>28</v>
       </c>
@@ -18279,7 +18280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>28</v>
       </c>
@@ -18315,7 +18316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>28</v>
       </c>
@@ -18351,7 +18352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>28</v>
       </c>
@@ -18387,7 +18388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>28</v>
       </c>
@@ -18423,7 +18424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>28</v>
       </c>
@@ -18459,7 +18460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>28</v>
       </c>
@@ -18495,7 +18496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>28</v>
       </c>
@@ -18533,7 +18534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>28</v>
       </c>
@@ -18575,7 +18576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>28</v>
       </c>
@@ -18619,7 +18620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>28</v>
       </c>
@@ -18663,7 +18664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>28</v>
       </c>
@@ -18707,7 +18708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>28</v>
       </c>
@@ -18751,7 +18752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>28</v>
       </c>
@@ -18795,7 +18796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>28</v>
       </c>
@@ -18839,7 +18840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>28</v>
       </c>
@@ -18883,7 +18884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>28</v>
       </c>
@@ -18927,7 +18928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>28</v>
       </c>
@@ -18971,7 +18972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>28</v>
       </c>
@@ -19015,7 +19016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="12">
         <v>28</v>
       </c>
@@ -19059,7 +19060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="B158" s="11"/>
       <c r="C158" s="9"/>
@@ -19079,7 +19080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" s="11"/>
       <c r="C159" s="9"/>
@@ -19099,7 +19100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="B160" s="11"/>
       <c r="C160" s="9"/>
@@ -19119,7 +19120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="21"/>
       <c r="B161" s="27"/>
       <c r="C161" s="9"/>
@@ -19139,7 +19140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="43"/>
       <c r="B162" s="13"/>
       <c r="C162" s="26"/>
@@ -19159,7 +19160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="17">
         <v>13</v>
       </c>
@@ -19189,7 +19190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>13</v>
       </c>
@@ -19219,7 +19220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>13</v>
       </c>
@@ -19249,7 +19250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>13</v>
       </c>
@@ -19279,7 +19280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>13</v>
       </c>
@@ -19309,7 +19310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>13</v>
       </c>
@@ -19339,7 +19340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>13</v>
       </c>
@@ -19369,7 +19370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>13</v>
       </c>
@@ -19399,7 +19400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>13</v>
       </c>
@@ -19435,7 +19436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>13</v>
       </c>
@@ -19471,7 +19472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
         <v>13</v>
       </c>
@@ -19507,7 +19508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>13</v>
       </c>
@@ -19543,7 +19544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="12">
         <v>13</v>
       </c>
@@ -19579,7 +19580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="9"/>
@@ -19599,7 +19600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="9"/>
@@ -19619,7 +19620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="9"/>
@@ -19639,7 +19640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="B179" s="11"/>
       <c r="C179" s="9"/>
@@ -19659,7 +19660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="B180" s="11"/>
       <c r="C180" s="9"/>
@@ -19679,7 +19680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="B181" s="11"/>
       <c r="C181" s="9"/>
@@ -19699,7 +19700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" s="11"/>
       <c r="C182" s="9"/>
@@ -19719,7 +19720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="11"/>
       <c r="C183" s="9"/>
@@ -19739,7 +19740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="B184" s="11"/>
       <c r="C184" s="9"/>
@@ -19759,7 +19760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="B185" s="11"/>
       <c r="C185" s="9"/>
@@ -19779,7 +19780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="B186" s="11"/>
       <c r="C186" s="9"/>
@@ -19799,7 +19800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="11"/>
       <c r="C187" s="9"/>
@@ -19819,7 +19820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="B188" s="11"/>
       <c r="C188" s="9"/>
@@ -19839,7 +19840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" s="11"/>
       <c r="C189" s="9"/>
@@ -19859,7 +19860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" s="11"/>
       <c r="C190" s="9"/>
@@ -19879,7 +19880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="B191" s="11"/>
       <c r="C191" s="9"/>
@@ -19899,7 +19900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="B192" s="11"/>
       <c r="C192" s="9"/>
@@ -19919,7 +19920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:14" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="21"/>
       <c r="B193" s="27"/>
       <c r="C193" s="15"/>
@@ -19939,7 +19940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="B194" s="11"/>
       <c r="C194" s="9"/>
@@ -19959,7 +19960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="B195" s="11"/>
       <c r="C195" s="9"/>
@@ -19979,7 +19980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="9"/>
@@ -19999,7 +20000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="9"/>
@@ -20019,7 +20020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="9"/>
@@ -20039,7 +20040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="9"/>
@@ -20059,7 +20060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="9"/>
@@ -20079,7 +20080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="6"/>
       <c r="B201" s="7"/>
       <c r="C201" s="9"/>
@@ -20099,7 +20100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="6"/>
       <c r="B202" s="7"/>
       <c r="C202" s="9"/>
@@ -20119,7 +20120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="6"/>
       <c r="B203" s="7"/>
       <c r="C203" s="9"/>
@@ -20139,7 +20140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="17"/>
       <c r="B204" s="7"/>
       <c r="C204" s="9"/>
@@ -20159,7 +20160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
         <v>20</v>
       </c>
@@ -20195,7 +20196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
         <v>20</v>
       </c>
@@ -20231,7 +20232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="6">
         <v>20</v>
       </c>
@@ -20267,7 +20268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="6">
         <v>20</v>
       </c>
@@ -20303,7 +20304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
         <v>20</v>
       </c>
@@ -20339,7 +20340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
         <v>20</v>
       </c>
@@ -20375,7 +20376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
         <v>20</v>
       </c>
@@ -20413,7 +20414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
         <v>20</v>
       </c>
@@ -20455,7 +20456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
         <v>20</v>
       </c>
@@ -20499,7 +20500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
         <v>20</v>
       </c>
@@ -20543,7 +20544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
         <v>20</v>
       </c>
@@ -20587,7 +20588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
         <v>20</v>
       </c>
@@ -20631,7 +20632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
         <v>20</v>
       </c>
@@ -20675,7 +20676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
         <v>20</v>
       </c>
@@ -20719,7 +20720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
         <v>20</v>
       </c>
@@ -20763,7 +20764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
         <v>20</v>
       </c>
@@ -20807,7 +20808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
         <v>20</v>
       </c>
@@ -20851,7 +20852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
         <v>20</v>
       </c>
@@ -20895,7 +20896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
         <v>20</v>
       </c>
@@ -20939,7 +20940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="12">
         <v>20</v>
       </c>
@@ -20983,7 +20984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="21">
         <v>20</v>
       </c>
@@ -21005,7 +21006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
         <v>25</v>
       </c>
@@ -21027,7 +21028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>25</v>
       </c>
@@ -21049,7 +21050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
         <v>25</v>
       </c>
@@ -21071,7 +21072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="6">
         <v>25</v>
       </c>
@@ -21093,7 +21094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="6">
         <v>25</v>
       </c>
@@ -21115,7 +21116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
         <v>25</v>
       </c>
@@ -21137,7 +21138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
         <v>25</v>
       </c>
@@ -21167,7 +21168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
         <v>25</v>
       </c>
@@ -21197,7 +21198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
         <v>25</v>
       </c>
@@ -21233,7 +21234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
         <v>25</v>
       </c>
@@ -21269,7 +21270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
         <v>25</v>
       </c>
@@ -21305,7 +21306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
         <v>25</v>
       </c>
@@ -21341,7 +21342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="6">
         <v>25</v>
       </c>
@@ -21377,7 +21378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="6">
         <v>25</v>
       </c>
@@ -21413,7 +21414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="6">
         <v>25</v>
       </c>
@@ -21449,7 +21450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="6">
         <v>25</v>
       </c>
@@ -21487,7 +21488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="6">
         <v>25</v>
       </c>
@@ -21525,7 +21526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="6">
         <v>25</v>
       </c>
@@ -21567,7 +21568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="6">
         <v>25</v>
       </c>
@@ -21611,7 +21612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="6">
         <v>25</v>
       </c>
@@ -21655,7 +21656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="6">
         <v>25</v>
       </c>
@@ -21699,7 +21700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="6">
         <v>25</v>
       </c>
@@ -21743,7 +21744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="6">
         <v>25</v>
       </c>
@@ -21787,7 +21788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="6">
         <v>25</v>
       </c>
@@ -21831,7 +21832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="6">
         <v>25</v>
       </c>
@@ -21875,7 +21876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="6">
         <v>25</v>
       </c>
@@ -21919,7 +21920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="6">
         <v>25</v>
       </c>
@@ -21963,7 +21964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
         <v>25</v>
       </c>
@@ -22007,7 +22008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" s="6">
         <v>25</v>
       </c>
@@ -22051,7 +22052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
         <v>25</v>
       </c>
@@ -22095,7 +22096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="34">
         <v>25</v>
       </c>
@@ -22139,7 +22140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="21"/>
       <c r="B257" s="14"/>
       <c r="C257" s="15"/>
@@ -22159,7 +22160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="6">
         <v>11</v>
       </c>
@@ -22181,7 +22182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="6">
         <v>11</v>
       </c>
@@ -22203,7 +22204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="6">
         <v>11</v>
       </c>
@@ -22225,7 +22226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="6">
         <v>11</v>
       </c>
@@ -22247,7 +22248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="6">
         <v>11</v>
       </c>
@@ -22269,7 +22270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="6">
         <v>11</v>
       </c>
@@ -22291,7 +22292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="6">
         <v>11</v>
       </c>
@@ -22313,7 +22314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" s="6">
         <v>11</v>
       </c>
@@ -22335,7 +22336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
         <v>11</v>
       </c>
@@ -22357,7 +22358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
         <v>11</v>
       </c>
@@ -22379,7 +22380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="6">
         <v>11</v>
       </c>
@@ -22401,7 +22402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
         <v>11</v>
       </c>
@@ -22423,7 +22424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" s="6">
         <v>11</v>
       </c>
@@ -22445,7 +22446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" s="6">
         <v>11</v>
       </c>
@@ -22483,7 +22484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="6">
         <v>11</v>
       </c>
@@ -22521,7 +22522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="6">
         <v>11</v>
       </c>
@@ -22559,7 +22560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274" s="6">
         <v>11</v>
       </c>
@@ -22597,7 +22598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
         <v>11</v>
       </c>
@@ -22639,7 +22640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" s="6">
         <v>11</v>
       </c>
@@ -22681,7 +22682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
         <v>11</v>
       </c>
@@ -22725,7 +22726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" s="6">
         <v>11</v>
       </c>
@@ -22769,7 +22770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="6">
         <v>11</v>
       </c>
@@ -22813,7 +22814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" s="6">
         <v>11</v>
       </c>
@@ -22857,7 +22858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="12">
         <v>11</v>
       </c>
@@ -22901,7 +22902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" s="6">
         <v>11</v>
       </c>
@@ -22923,7 +22924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" s="6">
         <v>11</v>
       </c>
@@ -22945,7 +22946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" s="6">
         <v>11</v>
       </c>
@@ -22967,7 +22968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285" s="6">
         <v>11</v>
       </c>
@@ -22989,7 +22990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" s="6">
         <v>11</v>
       </c>
@@ -23011,7 +23012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" s="6">
         <v>11</v>
       </c>
@@ -23033,7 +23034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" s="6">
         <v>11</v>
       </c>
@@ -23055,7 +23056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="21">
         <v>11</v>
       </c>
@@ -23077,7 +23078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" s="6">
         <v>7</v>
       </c>
@@ -23099,7 +23100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="6">
         <v>7</v>
       </c>
@@ -23121,7 +23122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" s="6">
         <v>7</v>
       </c>
@@ -23143,7 +23144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" s="6">
         <v>7</v>
       </c>
@@ -23165,7 +23166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" s="6">
         <v>7</v>
       </c>
@@ -23187,7 +23188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="6">
         <v>7</v>
       </c>
@@ -23209,7 +23210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="6">
         <v>7</v>
       </c>
@@ -23231,7 +23232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="6">
         <v>7</v>
       </c>
@@ -23253,7 +23254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="6">
         <v>7</v>
       </c>
@@ -23275,7 +23276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="6">
         <v>7</v>
       </c>
@@ -23297,7 +23298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="6">
         <v>7</v>
       </c>
@@ -23319,7 +23320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="6">
         <v>7</v>
       </c>
@@ -23341,7 +23342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="6">
         <v>7</v>
       </c>
@@ -23363,7 +23364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="6">
         <v>7</v>
       </c>
@@ -23385,7 +23386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="6">
         <v>7</v>
       </c>
@@ -23407,7 +23408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A305" s="6">
         <v>7</v>
       </c>
@@ -23445,7 +23446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A306" s="6">
         <v>7</v>
       </c>
@@ -23483,7 +23484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A307" s="6">
         <v>7</v>
       </c>
@@ -23521,7 +23522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A308" s="6">
         <v>7</v>
       </c>
@@ -23563,7 +23564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A309" s="6">
         <v>7</v>
       </c>
@@ -23607,7 +23608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A310" s="6">
         <v>7</v>
       </c>
@@ -23651,7 +23652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A311" s="12">
         <v>7</v>
       </c>
@@ -23695,7 +23696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A312" s="6">
         <v>7</v>
       </c>
@@ -23717,7 +23718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A313" s="6">
         <v>7</v>
       </c>
@@ -23739,7 +23740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A314" s="6">
         <v>7</v>
       </c>
@@ -23761,7 +23762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A315" s="6">
         <v>7</v>
       </c>
@@ -23783,7 +23784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A316" s="6">
         <v>7</v>
       </c>
@@ -23805,7 +23806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A317" s="6">
         <v>7</v>
       </c>
@@ -23827,7 +23828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="6">
         <v>7</v>
       </c>
@@ -23849,7 +23850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A319" s="6">
         <v>7</v>
       </c>
@@ -23871,7 +23872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A320" s="6">
         <v>7</v>
       </c>
@@ -23893,7 +23894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A321" s="21">
         <v>7</v>
       </c>
@@ -23915,7 +23916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A322" s="6">
         <v>24</v>
       </c>
@@ -23937,7 +23938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A323" s="6">
         <v>24</v>
       </c>
@@ -23959,7 +23960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A324" s="6">
         <v>24</v>
       </c>
@@ -23981,7 +23982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A325" s="6">
         <v>24</v>
       </c>
@@ -24003,7 +24004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A326" s="6">
         <v>24</v>
       </c>
@@ -24025,7 +24026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A327" s="6">
         <v>24</v>
       </c>
@@ -24047,7 +24048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A328" s="6">
         <v>24</v>
       </c>
@@ -24079,7 +24080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A329" s="6">
         <v>24</v>
       </c>
@@ -24111,7 +24112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A330" s="6">
         <v>24</v>
       </c>
@@ -24143,7 +24144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A331" s="6">
         <v>24</v>
       </c>
@@ -24175,7 +24176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A332" s="6">
         <v>24</v>
       </c>
@@ -24211,7 +24212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A333" s="6">
         <v>24</v>
       </c>
@@ -24247,7 +24248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A334" s="6">
         <v>24</v>
       </c>
@@ -24283,7 +24284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A335" s="6">
         <v>24</v>
       </c>
@@ -24321,7 +24322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A336" s="6">
         <v>24</v>
       </c>
@@ -24359,7 +24360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A337" s="6">
         <v>24</v>
       </c>
@@ -24397,7 +24398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A338" s="6">
         <v>24</v>
       </c>
@@ -24435,7 +24436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A339" s="6">
         <v>24</v>
       </c>
@@ -24477,7 +24478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A340" s="6">
         <v>24</v>
       </c>
@@ -24521,7 +24522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A341" s="6">
         <v>24</v>
       </c>
@@ -24565,7 +24566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A342" s="6">
         <v>24</v>
       </c>
@@ -24609,7 +24610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A343" s="6">
         <v>24</v>
       </c>
@@ -24653,7 +24654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A344" s="6">
         <v>24</v>
       </c>
@@ -24697,7 +24698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A345" s="6">
         <v>24</v>
       </c>
@@ -24741,7 +24742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A346" s="6">
         <v>24</v>
       </c>
@@ -24785,7 +24786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A347" s="6">
         <v>24</v>
       </c>
@@ -24829,7 +24830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A348" s="6">
         <v>24</v>
       </c>
@@ -24873,7 +24874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A349" s="6">
         <v>24</v>
       </c>
@@ -24917,7 +24918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A350" s="6">
         <v>24</v>
       </c>
@@ -24961,7 +24962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A351" s="17">
         <v>24</v>
       </c>
@@ -25005,7 +25006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A352" s="6">
         <v>24</v>
       </c>
@@ -25027,7 +25028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A353" s="21">
         <v>24</v>
       </c>
@@ -25049,7 +25050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A354" s="6">
         <v>14</v>
       </c>
@@ -25071,7 +25072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A355" s="6">
         <v>14</v>
       </c>
@@ -25093,7 +25094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A356" s="6">
         <v>14</v>
       </c>
@@ -25115,7 +25116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A357" s="6">
         <v>14</v>
       </c>
@@ -25137,7 +25138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A358" s="6">
         <v>14</v>
       </c>
@@ -25159,7 +25160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A359" s="6">
         <v>14</v>
       </c>
@@ -25181,7 +25182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A360" s="6">
         <v>14</v>
       </c>
@@ -25203,7 +25204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A361" s="6">
         <v>14</v>
       </c>
@@ -25225,7 +25226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A362" s="6">
         <v>14</v>
       </c>
@@ -25247,7 +25248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A363" s="6">
         <v>14</v>
       </c>
@@ -25283,7 +25284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A364" s="6">
         <v>14</v>
       </c>
@@ -25319,7 +25320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A365" s="6">
         <v>14</v>
       </c>
@@ -25355,7 +25356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="6">
         <v>14</v>
       </c>
@@ -25391,7 +25392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="6">
         <v>14</v>
       </c>
@@ -25427,7 +25428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A368" s="6">
         <v>14</v>
       </c>
@@ -25465,7 +25466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A369" s="6">
         <v>14</v>
       </c>
@@ -25503,7 +25504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A370" s="6">
         <v>14</v>
       </c>
@@ -25545,7 +25546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A371" s="6">
         <v>14</v>
       </c>
@@ -25587,7 +25588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A372" s="6">
         <v>14</v>
       </c>
@@ -25631,7 +25632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A373" s="6">
         <v>14</v>
       </c>
@@ -25675,7 +25676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A374" s="6">
         <v>14</v>
       </c>
@@ -25719,7 +25720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A375" s="6">
         <v>14</v>
       </c>
@@ -25763,7 +25764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A376" s="6">
         <v>14</v>
       </c>
@@ -25807,7 +25808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A377" s="6">
         <v>14</v>
       </c>
@@ -25829,7 +25830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A378" s="6">
         <v>14</v>
       </c>
@@ -25851,7 +25852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A379" s="6">
         <v>14</v>
       </c>
@@ -25873,7 +25874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A380" s="6">
         <v>14</v>
       </c>
@@ -25895,7 +25896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A381" s="6">
         <v>14</v>
       </c>
@@ -25917,7 +25918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A382" s="6">
         <v>14</v>
       </c>
@@ -25939,7 +25940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A383" s="6">
         <v>14</v>
       </c>
@@ -25961,7 +25962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A384" s="6">
         <v>14</v>
       </c>
@@ -25983,7 +25984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A385" s="6">
         <v>14</v>
       </c>
@@ -26005,7 +26006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A386" s="6">
         <v>17</v>
       </c>
@@ -26027,7 +26028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A387" s="6">
         <v>17</v>
       </c>
@@ -26049,7 +26050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A388" s="6">
         <v>17</v>
       </c>
@@ -26071,7 +26072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A389" s="6">
         <v>17</v>
       </c>
@@ -26093,7 +26094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A390" s="6">
         <v>17</v>
       </c>
@@ -26115,7 +26116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A391" s="6">
         <v>17</v>
       </c>
@@ -26137,7 +26138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A392" s="6">
         <v>17</v>
       </c>
@@ -26159,7 +26160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A393" s="6">
         <v>17</v>
       </c>
@@ -26181,7 +26182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A394" s="6">
         <v>17</v>
       </c>
@@ -26203,7 +26204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A395" s="6">
         <v>17</v>
       </c>
@@ -26225,7 +26226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A396" s="6">
         <v>17</v>
       </c>
@@ -26261,7 +26262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A397" s="6">
         <v>17</v>
       </c>
@@ -26297,7 +26298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A398" s="6">
         <v>17</v>
       </c>
@@ -26333,7 +26334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A399" s="6">
         <v>17</v>
       </c>
@@ -26369,7 +26370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A400" s="6">
         <v>17</v>
       </c>
@@ -26405,7 +26406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A401" s="6">
         <v>17</v>
       </c>
@@ -26443,7 +26444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A402" s="6">
         <v>17</v>
       </c>
@@ -26481,7 +26482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A403" s="6">
         <v>17</v>
       </c>
@@ -26519,7 +26520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A404" s="6">
         <v>17</v>
       </c>
@@ -26561,7 +26562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A405" s="6">
         <v>17</v>
       </c>
@@ -26605,7 +26606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A406" s="6">
         <v>17</v>
       </c>
@@ -26649,7 +26650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A407" s="6">
         <v>17</v>
       </c>
@@ -26693,7 +26694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A408" s="6">
         <v>17</v>
       </c>
@@ -26737,7 +26738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A409" s="6">
         <v>17</v>
       </c>
@@ -26781,7 +26782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A410" s="6">
         <v>17</v>
       </c>
@@ -26821,7 +26822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A411" s="6">
         <v>17</v>
       </c>
@@ -26861,7 +26862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A412" s="6">
         <v>17</v>
       </c>
@@ -26883,7 +26884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A413" s="6">
         <v>17</v>
       </c>
@@ -26905,7 +26906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A414" s="6">
         <v>17</v>
       </c>
@@ -26927,7 +26928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A415" s="6">
         <v>17</v>
       </c>
@@ -26949,7 +26950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A416" s="6">
         <v>17</v>
       </c>
@@ -26971,7 +26972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A417" s="21">
         <v>17</v>
       </c>
@@ -26994,6 +26995,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="3tX/fPk5G2xc5e0m4+B5xpJW9h3YTSNKq2sdoB8mStMNHWXDnrKaA/8lrU7Avd8hFin603adfywXFqSpCbMV6g==" saltValue="3TbJ4QcXKnBOKrH3PK8uUg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27002,60 +27004,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93772778-73D3-4D32-B629-48196039114A}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="47" t="s">
+      <c r="L1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="46" t="s">
+      <c r="N1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -27091,13 +27093,13 @@
         <v>8</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -27135,13 +27137,13 @@
         <v>9</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -27169,13 +27171,13 @@
         <v>5</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -27205,13 +27207,13 @@
         <v>5</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -27245,13 +27247,13 @@
         <v>7</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -27289,13 +27291,13 @@
         <v>8</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -27329,13 +27331,13 @@
         <v>7</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -27373,13 +27375,13 @@
         <v>8</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -27413,13 +27415,13 @@
         <v>8</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -27457,13 +27459,13 @@
         <v>9</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -27499,13 +27501,13 @@
         <v>8</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -27543,13 +27545,13 @@
         <v>9</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -27585,13 +27587,13 @@
         <v>8</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -27629,13 +27631,13 @@
         <v>9</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -27671,13 +27673,13 @@
         <v>8</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -27715,13 +27717,13 @@
         <v>9</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -27757,13 +27759,13 @@
         <v>8</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -27801,13 +27803,13 @@
         <v>9</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -27841,13 +27843,13 @@
         <v>7</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -27885,13 +27887,13 @@
         <v>9</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2</v>
       </c>
@@ -27921,13 +27923,13 @@
         <v>7</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2</v>
       </c>
@@ -27965,13 +27967,13 @@
         <v>8</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2</v>
       </c>
@@ -28005,13 +28007,13 @@
         <v>7</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>2</v>
       </c>
@@ -28049,13 +28051,13 @@
         <v>8</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>2</v>
       </c>
@@ -28085,13 +28087,13 @@
         <v>6</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>2</v>
       </c>
@@ -28129,13 +28131,13 @@
         <v>8</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>2</v>
       </c>
@@ -28169,13 +28171,13 @@
         <v>7</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>2</v>
       </c>
@@ -28213,10 +28215,10 @@
         <v>8</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -28228,60 +28230,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BFAB57-BDFD-4558-9FCE-DA4E7FF11779}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="47" t="s">
+      <c r="L1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="46" t="s">
+      <c r="N1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>16</v>
       </c>
@@ -28311,13 +28313,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>16</v>
       </c>
@@ -28347,13 +28349,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>16</v>
       </c>
@@ -28383,13 +28385,13 @@
         <v>6</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>16</v>
       </c>
@@ -28419,13 +28421,13 @@
         <v>6</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>16</v>
       </c>
@@ -28456,13 +28458,13 @@
         <v>6</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>16</v>
       </c>
@@ -28493,13 +28495,13 @@
         <v>7</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>16</v>
       </c>
@@ -28534,13 +28536,13 @@
         <v>7</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -28575,13 +28577,13 @@
         <v>7</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>16</v>
       </c>
@@ -28616,13 +28618,13 @@
         <v>7</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>16</v>
       </c>
@@ -28657,13 +28659,13 @@
         <v>8</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>16</v>
       </c>
@@ -28698,13 +28700,13 @@
         <v>8</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>16</v>
       </c>
@@ -28739,13 +28741,13 @@
         <v>8</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>16</v>
       </c>
@@ -28780,13 +28782,13 @@
         <v>8</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>16</v>
       </c>
@@ -28821,13 +28823,13 @@
         <v>8</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -28862,13 +28864,13 @@
         <v>9</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -28903,13 +28905,13 @@
         <v>9</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -28939,13 +28941,13 @@
         <v>5</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -28975,13 +28977,13 @@
         <v>5</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -29012,13 +29014,13 @@
         <v>6</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>14</v>
       </c>
@@ -29049,13 +29051,13 @@
         <v>6</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>14</v>
       </c>
@@ -29086,13 +29088,13 @@
         <v>6</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>14</v>
       </c>
@@ -29123,13 +29125,13 @@
         <v>6</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>14</v>
       </c>
@@ -29160,13 +29162,13 @@
         <v>6</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>14</v>
       </c>
@@ -29201,13 +29203,13 @@
         <v>7</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>14</v>
       </c>
@@ -29242,13 +29244,13 @@
         <v>7</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>14</v>
       </c>
@@ -29283,13 +29285,13 @@
         <v>7</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>14</v>
       </c>
@@ -29324,13 +29326,13 @@
         <v>8</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -29365,13 +29367,13 @@
         <v>8</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>14</v>
       </c>
@@ -29406,13 +29408,13 @@
         <v>8</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>14</v>
       </c>
@@ -29447,10 +29449,10 @@
         <v>9</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
